--- a/9-Data_Analysis_With_Python/data.xlsx
+++ b/9-Data_Analysis_With_Python/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UDemy Final\python\10-Data Analysis With Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkapil\Documents\mlops-python\9-Data_Analysis_With_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB52131-3D71-4759-B406-60BDD419A3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,19 +33,19 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Krish</t>
-  </si>
-  <si>
     <t>Jack</t>
   </si>
   <si>
     <t>John</t>
   </si>
+  <si>
+    <t>Karan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,16 +356,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,25 +373,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -398,5 +399,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;L_x000D_&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022B C2 - Restricted use </oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{c5e6e129-f928-4a05-ae32-d838f6b21bdd}" enabled="1" method="Standard" siteId="{8b87af7d-8647-4dc7-8df4-5f69a2011bb5}" contentBits="3" removed="0"/>
+</clbl:labelList>
 </file>